--- a/bahan/Data penduduk Desa Semanding.xlsx
+++ b/bahan/Data penduduk Desa Semanding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsiku\bahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A1F57D-E7A9-4B1B-B8FE-36E002DA6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E4F184-92F2-4BFA-9DEE-87A2E5566C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67D50CDA-FFCB-4CFB-980E-EB1C34F99548}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="kriteria" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$N$106</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="289">
   <si>
     <t xml:space="preserve">DAFTAR NAMA KEPALA KELUARGA DESA SEMANDING </t>
   </si>
@@ -189,9 +192,6 @@
     <t>TARMUDJI</t>
   </si>
   <si>
-    <t>SUWANTHO</t>
-  </si>
-  <si>
     <t>32 M2</t>
   </si>
   <si>
@@ -225,9 +225,6 @@
     <t>54M2</t>
   </si>
   <si>
-    <t>LAMARI</t>
-  </si>
-  <si>
     <t>IMAM TOKO</t>
   </si>
   <si>
@@ -363,18 +360,12 @@
     <t>MARSILAN</t>
   </si>
   <si>
-    <t>EDI PRIYO HADI K</t>
-  </si>
-  <si>
     <t xml:space="preserve">NURHAMID </t>
   </si>
   <si>
     <t>63 M2</t>
   </si>
   <si>
-    <t>SUKARNO</t>
-  </si>
-  <si>
     <t>SAMIDAH</t>
   </si>
   <si>
@@ -417,18 +408,9 @@
     <t>120 M2</t>
   </si>
   <si>
-    <t>YUDI WAHYU ARI</t>
-  </si>
-  <si>
     <t>DARMUJI</t>
   </si>
   <si>
-    <t>BHAYU AJI LAKSMANA P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keramik </t>
-  </si>
-  <si>
     <t>DAFTAR NO KK DESA SEMANDING RT 02 RW5</t>
   </si>
   <si>
@@ -672,9 +654,6 @@
     <t>DEBY TARUNA VIRGO</t>
   </si>
   <si>
-    <t>'3523151403060771</t>
-  </si>
-  <si>
     <t>TITIK MUJIATI</t>
   </si>
   <si>
@@ -763,6 +742,168 @@
   </si>
   <si>
     <t>M. SUEB</t>
+  </si>
+  <si>
+    <t>TTITIK MUJIATI</t>
+  </si>
+  <si>
+    <t>3523151403060771</t>
+  </si>
+  <si>
+    <t>96 M2</t>
+  </si>
+  <si>
+    <t>WITAWIKNINGSIH</t>
+  </si>
+  <si>
+    <t>73 M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02 / 05</t>
+  </si>
+  <si>
+    <t>HENDRA PERMANA TEGUH</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>133 M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADENAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02 / 05 </t>
+  </si>
+  <si>
+    <t>ANTON WAHYUDIN</t>
+  </si>
+  <si>
+    <t>70 M2</t>
+  </si>
+  <si>
+    <t>105 M2</t>
+  </si>
+  <si>
+    <t>37 M2</t>
+  </si>
+  <si>
+    <t>M.SUEB</t>
+  </si>
+  <si>
+    <t>108 M2</t>
+  </si>
+  <si>
+    <t>150 M2</t>
+  </si>
+  <si>
+    <t>02 /05</t>
+  </si>
+  <si>
+    <t>PDAM (Numpang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDAM </t>
+  </si>
+  <si>
+    <t>MOCHAMMAD ISWANDI</t>
+  </si>
+  <si>
+    <t>MOH . MAHKIN NAUFAL</t>
+  </si>
+  <si>
+    <t>DAFTAR NO KK DESA SEMANDING RT 01 RW 05</t>
+  </si>
+  <si>
+    <t>Nama Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>3523122711140001</t>
+  </si>
+  <si>
+    <t>3523152312110002</t>
+  </si>
+  <si>
+    <t>SUWANTO</t>
+  </si>
+  <si>
+    <t>3523150212140009</t>
+  </si>
+  <si>
+    <t>3523151403061477</t>
+  </si>
+  <si>
+    <t>3523153112090244</t>
+  </si>
+  <si>
+    <t>3523151403061478</t>
+  </si>
+  <si>
+    <t>3523152906120007</t>
+  </si>
+  <si>
+    <t>3523151403061480</t>
+  </si>
+  <si>
+    <t>3523150507190002</t>
+  </si>
+  <si>
+    <t>3523151403061482</t>
+  </si>
+  <si>
+    <t>3523151403061495</t>
+  </si>
+  <si>
+    <t>3523152603110001</t>
+  </si>
+  <si>
+    <t>3523152212200001</t>
+  </si>
+  <si>
+    <t>3523151403170009</t>
+  </si>
+  <si>
+    <t>3523153112090184</t>
+  </si>
+  <si>
+    <t>3523153112090228</t>
+  </si>
+  <si>
+    <t>3523151403061479</t>
+  </si>
+  <si>
+    <t>3523151210160002</t>
+  </si>
+  <si>
+    <t>3523151403061489</t>
+  </si>
+  <si>
+    <t>3523153010120005</t>
+  </si>
+  <si>
+    <t>3523153112090174</t>
+  </si>
+  <si>
+    <t>3523150305120003</t>
+  </si>
+  <si>
+    <t>3523151403061471</t>
+  </si>
+  <si>
+    <t>3523151403061494</t>
+  </si>
+  <si>
+    <t>3523151403061485</t>
+  </si>
+  <si>
+    <t>3523152608190006</t>
+  </si>
+  <si>
+    <t>3523151403061487</t>
+  </si>
+  <si>
+    <t>3523153012090392</t>
   </si>
 </sst>
 </file>
@@ -770,7 +911,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1093,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1128,9 +1269,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,14 +1281,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1166,10 +1301,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,16 +1638,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2915D4C2-47A7-4A5E-8CDE-666C9EAA4666}">
-  <dimension ref="A2:N116"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
@@ -1502,83 +1658,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:14" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1593,7 +1749,9 @@
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="44">
+        <v>1500000</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1626,14 +1784,18 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="20" t="s">
+        <v>284</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1835,9 @@
       <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>3500000</v>
+      </c>
       <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1706,14 +1870,18 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1746,14 +1914,20 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="str">
+        <f>Sheet2!B21</f>
+        <v>3523151309090186</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E10" s="38">
+        <f>Sheet2!D21</f>
+        <v>5000000</v>
+      </c>
       <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1786,14 +1960,18 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="20" t="s">
+        <v>280</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>3500000</v>
+      </c>
       <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1833,7 +2011,9 @@
       <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1873,7 +2053,9 @@
       <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1906,14 +2088,20 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="str">
+        <f>Sheet2!B67</f>
+        <v>3523122711140001</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10">
+        <f>Sheet2!D67</f>
+        <v>1500000</v>
+      </c>
       <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1946,14 +2134,18 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>34</v>
       </c>
@@ -1986,14 +2178,18 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2026,14 +2222,18 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>34</v>
       </c>
@@ -2066,14 +2266,18 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2106,14 +2310,18 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>48</v>
       </c>
@@ -2146,14 +2354,18 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="20" t="s">
+        <v>281</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10">
+        <v>2500000</v>
+      </c>
       <c r="F20" s="10" t="s">
         <v>48</v>
       </c>
@@ -2186,14 +2398,18 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="20" t="s">
+        <v>285</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2226,16 +2442,20 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="20" t="s">
+        <v>282</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>16</v>
@@ -2253,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>44</v>
@@ -2266,16 +2486,20 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>16</v>
@@ -2293,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>44</v>
@@ -2306,14 +2530,18 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10">
+        <v>1000000</v>
+      </c>
       <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2348,12 +2576,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>24</v>
       </c>
@@ -2386,16 +2616,20 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="20" t="s">
+        <v>287</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F26" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>16</v>
@@ -2426,16 +2660,20 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <v>6000000</v>
+      </c>
       <c r="F27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>16</v>
@@ -2466,19 +2704,23 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>23</v>
@@ -2486,11 +2728,11 @@
       <c r="I28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>18</v>
+      <c r="J28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>19</v>
@@ -2506,16 +2748,20 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F29" s="10" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>16</v>
@@ -2530,7 +2776,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>19</v>
@@ -2546,14 +2792,18 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F30" s="10" t="s">
         <v>66</v>
       </c>
@@ -2566,17 +2816,17 @@
       <c r="I30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="10">
-        <v>3</v>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>21</v>
@@ -2586,14 +2836,18 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10">
+        <v>1000000</v>
+      </c>
       <c r="F31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2607,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>18</v>
@@ -2616,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>21</v>
@@ -2626,19 +2880,23 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>23</v>
@@ -2646,11 +2904,11 @@
       <c r="I32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="10">
-        <v>2</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>18</v>
+      <c r="J32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="10">
+        <v>3</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>19</v>
@@ -2666,19 +2924,23 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F33" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>23</v>
@@ -2690,13 +2952,13 @@
         <v>18</v>
       </c>
       <c r="K33" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>21</v>
@@ -2706,16 +2968,20 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>3000000</v>
+      </c>
       <c r="F34" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>16</v>
@@ -2736,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>21</v>
@@ -2746,16 +3012,20 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F35" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>16</v>
@@ -2766,17 +3036,17 @@
       <c r="I35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>18</v>
+      <c r="J35" s="10">
+        <v>2</v>
       </c>
       <c r="K35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>21</v>
@@ -2786,16 +3056,20 @@
       <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F36" s="10" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>16</v>
@@ -2806,17 +3080,17 @@
       <c r="I36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="10">
-        <v>2</v>
+      <c r="J36" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>21</v>
@@ -2833,7 +3107,9 @@
       <c r="D37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F37" s="10" t="s">
         <v>78</v>
       </c>
@@ -2850,16 +3126,16 @@
         <v>18</v>
       </c>
       <c r="K37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2868,17 +3144,19 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F38" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>23</v>
@@ -2886,11 +3164,11 @@
       <c r="I38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="10">
-        <v>2</v>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>19</v>
@@ -2899,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2913,12 +3191,14 @@
       <c r="D39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10">
+        <v>2500000</v>
+      </c>
       <c r="F39" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>23</v>
@@ -2927,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>18</v>
@@ -2939,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2953,30 +3233,32 @@
       <c r="D40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F40" s="10" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>21</v>
@@ -2988,12 +3270,14 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F41" s="10" t="s">
         <v>24</v>
       </c>
@@ -3001,22 +3285,22 @@
         <v>16</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="10">
         <v>1</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="L41" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>21</v>
@@ -3026,14 +3310,18 @@
       <c r="A42" s="1">
         <v>37</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10">
+        <v>2000000</v>
+      </c>
       <c r="F42" s="10" t="s">
         <v>24</v>
       </c>
@@ -3050,7 +3338,7 @@
         <v>18</v>
       </c>
       <c r="K42" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>19</v>
@@ -3066,19 +3354,23 @@
       <c r="A43" s="1">
         <v>38</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F43" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>23</v>
@@ -3086,11 +3378,11 @@
       <c r="I43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="10">
+      <c r="J43" s="10">
         <v>2</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>19</v>
@@ -3108,26 +3400,28 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F44" s="10" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>18</v>
@@ -3146,19 +3440,23 @@
       <c r="A45" s="1">
         <v>40</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10">
+        <v>1500000</v>
+      </c>
       <c r="F45" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>23</v>
@@ -3166,11 +3464,11 @@
       <c r="I45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="10">
-        <v>1</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>18</v>
+      <c r="J45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="10">
+        <v>2</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>19</v>
@@ -3186,31 +3484,35 @@
       <c r="A46" s="1">
         <v>41</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="20" t="s">
+        <v>283</v>
+      </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10">
+        <v>2500000</v>
+      </c>
       <c r="F46" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1</v>
       </c>
       <c r="K46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>19</v>
@@ -3233,24 +3535,26 @@
       <c r="D47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="H47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J47" s="10">
         <v>1</v>
       </c>
-      <c r="K47" s="10">
-        <v>1</v>
+      <c r="K47" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>19</v>
@@ -3273,24 +3577,26 @@
       <c r="D48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="10">
+        <v>2500000</v>
+      </c>
       <c r="F48" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="10">
+        <v>18</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="10">
         <v>1</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>19</v>
@@ -3306,34 +3612,40 @@
       <c r="A49" s="1">
         <v>44</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="str">
+        <f>Sheet2!B24</f>
+        <v>3523151403061467</v>
+      </c>
       <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="38">
+        <f>Sheet2!D24</f>
+        <v>1000000</v>
+      </c>
       <c r="F49" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="10">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10">
+        <v>2</v>
+      </c>
+      <c r="L49" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="10">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>20</v>
@@ -3346,16 +3658,22 @@
       <c r="A50" s="1">
         <v>45</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="str">
+        <f>Sheet2!B37</f>
+        <v>3523151403061466</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E50" s="38">
+        <f>Sheet2!D37</f>
+        <v>800000</v>
+      </c>
       <c r="F50" s="10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>16</v>
@@ -3364,16 +3682,16 @@
         <v>23</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="10">
-        <v>1</v>
-      </c>
-      <c r="K50" s="10">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>20</v>
@@ -3386,17 +3704,23 @@
       <c r="A51" s="1">
         <v>46</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="str">
+        <f>Sheet2!B36</f>
+        <v>3523151309090180</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D51" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="38" t="str">
+        <f>Sheet2!D36</f>
+        <v>Tidak bekerja</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
@@ -3406,17 +3730,17 @@
       <c r="I51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>18</v>
+      <c r="J51" s="10">
+        <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>21</v>
@@ -3426,14 +3750,20 @@
       <c r="A52" s="1">
         <v>47</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="str">
+        <f>Sheet2!B38</f>
+        <v>3523151403061468</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E52" s="38">
+        <f>Sheet2!D38</f>
+        <v>1500000</v>
+      </c>
       <c r="F52" s="10" t="s">
         <v>103</v>
       </c>
@@ -3453,10 +3783,10 @@
         <v>18</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>21</v>
@@ -3466,19 +3796,25 @@
       <c r="A53" s="1">
         <v>48</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="str">
+        <f>Sheet2!B41</f>
+        <v>3523153004190006</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E53" s="38">
+        <f>Sheet2!D41</f>
+        <v>2500000</v>
+      </c>
       <c r="F53" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>23</v>
@@ -3486,11 +3822,11 @@
       <c r="I53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="10">
-        <v>1</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>18</v>
+      <c r="J53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="10">
+        <v>2</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>19</v>
@@ -3506,19 +3842,25 @@
       <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="str">
+        <f>Sheet2!B42</f>
+        <v>3523151309090188</v>
+      </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E54" s="38">
+        <f>Sheet2!D42</f>
+        <v>1500000</v>
+      </c>
       <c r="F54" s="10" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>23</v>
@@ -3546,14 +3888,20 @@
       <c r="A55" s="1">
         <v>50</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="str">
+        <f>Sheet2!B34</f>
+        <v>3523151403061462</v>
+      </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E55" s="38">
+        <f>Sheet2!D34</f>
+        <v>1000000</v>
+      </c>
       <c r="F55" s="10" t="s">
         <v>15</v>
       </c>
@@ -3566,11 +3914,11 @@
       <c r="I55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="10">
+      <c r="J55" s="10">
         <v>2</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>19</v>
@@ -3586,17 +3934,23 @@
       <c r="A56" s="1">
         <v>51</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="str">
+        <f>Sheet2!B40</f>
+        <v>3523150209200001</v>
+      </c>
       <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="38">
+        <f>Sheet2!D40</f>
+        <v>5000000</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G56" s="10" t="s">
         <v>16</v>
       </c>
@@ -3604,13 +3958,13 @@
         <v>23</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="10">
-        <v>2</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="10">
+        <v>1</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>19</v>
@@ -3626,19 +3980,25 @@
       <c r="A57" s="1">
         <v>52</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="str">
+        <f>Sheet2!B39</f>
+        <v>3523151403060780</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E57" s="38" t="str">
+        <f>Sheet2!D39</f>
+        <v>Tidak bekerja</v>
+      </c>
       <c r="F57" s="10" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>23</v>
@@ -3646,11 +4006,11 @@
       <c r="I57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="10">
+      <c r="J57" s="10">
         <v>1</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>19</v>
@@ -3666,16 +4026,22 @@
       <c r="A58" s="1">
         <v>53</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="str">
+        <f>Sheet2!B30</f>
+        <v>3523151403061463</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E58" s="38">
+        <f>Sheet2!D30</f>
+        <v>800000</v>
+      </c>
       <c r="F58" s="10" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>16</v>
@@ -3690,13 +4056,13 @@
         <v>18</v>
       </c>
       <c r="K58" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>21</v>
@@ -3706,16 +4072,22 @@
       <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="str">
+        <f>Sheet2!B32</f>
+        <v>3523151005110001</v>
+      </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E59" s="38">
+        <f>Sheet2!D32</f>
+        <v>1000000</v>
+      </c>
       <c r="F59" s="10" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>16</v>
@@ -3730,13 +4102,13 @@
         <v>18</v>
       </c>
       <c r="K59" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>21</v>
@@ -3746,17 +4118,23 @@
       <c r="A60" s="1">
         <v>55</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="str">
+        <f>Sheet2!B33</f>
+        <v>3523151403060778</v>
+      </c>
       <c r="C60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="38">
+        <f>Sheet2!D33</f>
+        <v>1000000</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="G60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3766,11 +4144,11 @@
       <c r="I60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="10">
         <v>1</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>19</v>
@@ -3786,14 +4164,20 @@
       <c r="A61" s="1">
         <v>56</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="str">
+        <f>Sheet2!B35</f>
+        <v>3523151303180005</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E61" s="38">
+        <f>Sheet2!D35</f>
+        <v>3000000</v>
+      </c>
       <c r="F61" s="10" t="s">
         <v>24</v>
       </c>
@@ -3804,19 +4188,19 @@
         <v>23</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K61" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>21</v>
@@ -3826,16 +4210,22 @@
       <c r="A62" s="1">
         <v>57</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="str">
+        <f>Sheet2!B31</f>
+        <v>3523151403060769</v>
+      </c>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E62" s="38">
+        <f>Sheet2!D31</f>
+        <v>3000000</v>
+      </c>
       <c r="F62" s="10" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>16</v>
@@ -3850,13 +4240,13 @@
         <v>18</v>
       </c>
       <c r="K62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>21</v>
@@ -3866,19 +4256,25 @@
       <c r="A63" s="1">
         <v>58</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="str">
+        <f>Sheet2!B43</f>
+        <v>3523152405190001</v>
+      </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E63" s="38">
+        <f>Sheet2!D43</f>
+        <v>1000000</v>
+      </c>
       <c r="F63" s="10" t="s">
         <v>117</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>23</v>
@@ -3906,16 +4302,22 @@
       <c r="A64" s="1">
         <v>59</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="str">
+        <f>Sheet2!B44</f>
+        <v>3523151403060777</v>
+      </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E64" s="38">
+        <f>Sheet2!D44</f>
+        <v>4000000</v>
+      </c>
       <c r="F64" s="10" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>16</v>
@@ -3926,11 +4328,11 @@
       <c r="I64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="10">
-        <v>2</v>
+      <c r="J64" s="10">
+        <v>1</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>19</v>
@@ -3946,16 +4348,22 @@
       <c r="A65" s="1">
         <v>60</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="str">
+        <f>Sheet2!B45</f>
+        <v>3523151309090177</v>
+      </c>
       <c r="C65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E65" s="38">
+        <f>Sheet2!D45</f>
+        <v>5000000</v>
+      </c>
       <c r="F65" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>16</v>
@@ -3970,7 +4378,7 @@
         <v>18</v>
       </c>
       <c r="K65" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>19</v>
@@ -3986,19 +4394,25 @@
       <c r="A66" s="1">
         <v>61</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="str">
+        <f>Sheet2!B46</f>
+        <v>3523151403060771</v>
+      </c>
       <c r="C66" s="2" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E66" s="38">
+        <f>Sheet2!D46</f>
+        <v>800000</v>
+      </c>
       <c r="F66" s="10" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>23</v>
@@ -4010,7 +4424,7 @@
         <v>18</v>
       </c>
       <c r="K66" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>19</v>
@@ -4026,16 +4440,22 @@
       <c r="A67" s="1">
         <v>62</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="str">
+        <f>Sheet2!B47</f>
+        <v>3523151309090182</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E67" s="38">
+        <f>Sheet2!D47</f>
+        <v>4000000</v>
+      </c>
       <c r="F67" s="10" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>16</v>
@@ -4046,8 +4466,8 @@
       <c r="I67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="10">
-        <v>1</v>
+      <c r="J67" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>18</v>
@@ -4066,16 +4486,22 @@
       <c r="A68" s="1">
         <v>63</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="str">
+        <f>Sheet2!B48</f>
+        <v>3523151403060776</v>
+      </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E68" s="38">
+        <f>Sheet2!D48</f>
+        <v>1000000</v>
+      </c>
       <c r="F68" s="10" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>16</v>
@@ -4086,11 +4512,11 @@
       <c r="I68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="10">
-        <v>2</v>
+      <c r="J68" s="10">
+        <v>1</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>19</v>
@@ -4106,16 +4532,22 @@
       <c r="A69" s="1">
         <v>64</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2" t="str">
+        <f>Sheet2!B6</f>
+        <v>3523151309090184</v>
+      </c>
       <c r="C69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E69" s="38">
+        <f>Sheet2!D6</f>
+        <v>700000</v>
+      </c>
       <c r="F69" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>16</v>
@@ -4130,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="K69" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>19</v>
@@ -4146,16 +4578,22 @@
       <c r="A70" s="1">
         <v>65</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="str">
+        <f>Sheet2!B49</f>
+        <v>3523152101140003</v>
+      </c>
       <c r="C70" s="2" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E70" s="38">
+        <f>Sheet2!D49</f>
+        <v>500000</v>
+      </c>
       <c r="F70" s="10" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>16</v>
@@ -4166,8 +4604,8 @@
       <c r="I70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>18</v>
+      <c r="J70" s="10">
+        <v>1</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>18</v>
@@ -4186,16 +4624,22 @@
       <c r="A71" s="1">
         <v>66</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="str">
+        <f>Sheet2!B52</f>
+        <v>3523152207170003</v>
+      </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E71" s="38">
+        <f>Sheet2!D52</f>
+        <v>3700000</v>
+      </c>
       <c r="F71" s="10" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>16</v>
@@ -4206,17 +4650,17 @@
       <c r="I71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>18</v>
+      <c r="J71" s="10">
+        <v>1</v>
+      </c>
+      <c r="K71" s="10">
+        <v>1</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>21</v>
@@ -4226,564 +4670,1429 @@
       <c r="A72" s="1">
         <v>67</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="11"/>
+      <c r="B72" s="2" t="str">
+        <f>Sheet2!B50</f>
+        <v>3523152212160003</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E72" s="38">
+        <f>Sheet2!D50</f>
+        <v>1000000</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="10">
+        <v>1</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>68</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="11"/>
+      <c r="B73" s="2" t="str">
+        <f>Sheet2!B51</f>
+        <v>3523151403063105</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="38">
+        <f>Sheet2!D51</f>
+        <v>2083333.3333333333</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="10">
+        <v>1</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>69</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="11"/>
+      <c r="B74" s="2" t="str">
+        <f>Sheet2!B25</f>
+        <v>3523150311160031</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="38">
+        <f>Sheet2!D25</f>
+        <v>2000000</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="10">
+        <v>2</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>70</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
+      <c r="B75" s="2" t="str">
+        <f>Sheet2!B53</f>
+        <v>3523151403060757</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="38">
+        <f>Sheet2!D53</f>
+        <v>5830000</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="10">
+        <v>1</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>71</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="11"/>
+      <c r="B76" s="2" t="str">
+        <f>Sheet2!B54</f>
+        <v>3523151403064641</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="38">
+        <f>Sheet2!D54</f>
+        <v>1500000</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="10">
+        <v>1</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>72</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="11"/>
+      <c r="B77" s="2" t="str">
+        <f>Sheet2!B55</f>
+        <v>3523151309090179</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="38">
+        <f>Sheet2!D55</f>
+        <v>1600000</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="10">
+        <v>1</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="78" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>73</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="11"/>
+      <c r="B78" s="2" t="str">
+        <f>Sheet2!B57</f>
+        <v>3523152310180005</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" s="38">
+        <f>Sheet2!D57</f>
+        <v>1000000</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="79" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>74</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="11"/>
+      <c r="B79" s="2" t="str">
+        <f>Sheet2!B56</f>
+        <v>3523151309090183</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="38">
+        <f>Sheet2!D56</f>
+        <v>4000000</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="10">
+        <v>3</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="80" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>75</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="11"/>
+      <c r="B80" s="2" t="str">
+        <f>Sheet2!B58</f>
+        <v>3523151403060766</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="38">
+        <f>Sheet2!D58</f>
+        <v>5000000</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="10">
+        <v>2</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="81" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>76</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="11"/>
+      <c r="B81" s="2" t="str">
+        <f>Sheet2!B59</f>
+        <v>3523151403060765</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="38">
+        <f>Sheet2!D59</f>
+        <v>3000000</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="10">
+        <v>1</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="82" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>77</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="11"/>
+      <c r="B82" s="2" t="str">
+        <f>Sheet2!B60</f>
+        <v>3523151403060763</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="38">
+        <f>Sheet2!D60</f>
+        <v>2500000</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>78</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="11"/>
+      <c r="B83" s="2" t="str">
+        <f>Sheet2!B61</f>
+        <v>3523151403060762</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="38">
+        <f>Sheet2!D61</f>
+        <v>2000000</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>79</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="11"/>
+      <c r="B84" s="2" t="str">
+        <f>Sheet2!B18</f>
+        <v>3523152007120012</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="38">
+        <f>Sheet2!D18</f>
+        <v>1800000</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="10">
+        <v>2</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="85" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>80</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="11"/>
+      <c r="B85" s="2" t="str">
+        <f>Sheet2!B17</f>
+        <v>3523151403060761</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="38">
+        <f>Sheet2!D17</f>
+        <v>5000000</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="10">
+        <v>1</v>
+      </c>
+      <c r="K85" s="10">
+        <v>3</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="86" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>81</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="11"/>
+      <c r="B86" s="2" t="str">
+        <f>Sheet2!B19</f>
+        <v>3523152901190003</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="38">
+        <f>Sheet2!D19</f>
+        <v>2000000</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="10">
+        <v>1</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>82</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="11"/>
+      <c r="B87" s="2" t="str">
+        <f>Sheet2!B14</f>
+        <v>3523152110200008</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" s="38">
+        <f>Sheet2!D14</f>
+        <v>1500000</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>83</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="11"/>
+      <c r="B88" s="2" t="str">
+        <f>Sheet2!B27</f>
+        <v>3523151403060779</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="10">
+        <v>1</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>84</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="11"/>
+      <c r="B89" s="2" t="str">
+        <f>Sheet2!B16</f>
+        <v>3523150508150003</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="38">
+        <f>Sheet2!D16</f>
+        <v>1000000</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="10">
+        <v>1</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>85</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="11"/>
+      <c r="B90" s="2" t="str">
+        <f>Sheet2!B15</f>
+        <v>3523151403060759</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="38">
+        <f>Sheet2!D15</f>
+        <v>1000000</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="10">
+        <v>1</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="91" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>86</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="11"/>
+      <c r="B91" s="2" t="str">
+        <f>Sheet2!B7</f>
+        <v>3523152906120006</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="38">
+        <f>Sheet2!D7</f>
+        <v>1000000</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="10">
+        <v>2</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>87</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="11"/>
+      <c r="B92" s="2" t="str">
+        <f>Sheet2!B29</f>
+        <v>3523153112090187</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="38">
+        <f>Sheet2!D29</f>
+        <v>2000000</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="10">
+        <v>1</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="93" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>88</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="11"/>
+      <c r="B93" s="2" t="str">
+        <f>Sheet2!B9</f>
+        <v>3523151403061502</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="38">
+        <f>Sheet2!D9</f>
+        <v>1500000</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="94" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>89</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="11"/>
+      <c r="B94" s="2" t="str">
+        <f>Sheet2!B20</f>
+        <v>3523151409180003</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="38">
+        <f>Sheet2!D20</f>
+        <v>3000000</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="10">
+        <v>1</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="95" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>90</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="11"/>
+      <c r="B95" s="2" t="str">
+        <f>Sheet2!B23</f>
+        <v>3523151503061503</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="38">
+        <f>Sheet2!D23</f>
+        <v>666000</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="10">
+        <v>2</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>91</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="2" t="str">
+        <f>Sheet2!B22</f>
+        <v>3523151309090178</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="38">
+        <f>Sheet2!D22</f>
+        <v>1000000</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="10">
+        <v>1</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="41" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>92</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="11"/>
+      <c r="B97" s="40" t="str">
+        <f>Sheet2!B10</f>
+        <v>3523151403061500</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97" s="10">
+        <f>Sheet2!D10</f>
+        <v>500000</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="10">
+        <v>2</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>93</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="11"/>
-    </row>
-    <row r="99" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="2" t="str">
+        <f>Sheet2!B8</f>
+        <v>3523151403061499</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="38">
+        <f>Sheet2!D8</f>
+        <v>2000000</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="10">
+        <v>2</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="41" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>94</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="11"/>
+      <c r="B99" s="40" t="str">
+        <f>Sheet2!B11</f>
+        <v>3523151403061497</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="38">
+        <f>Sheet2!D11</f>
+        <v>800000</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="10">
+        <v>1</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>95</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="11"/>
+      <c r="B100" s="2" t="str">
+        <f>Sheet2!B12</f>
+        <v>3523151403061490</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="38">
+        <f>Sheet2!D12 +Sheet2!J7</f>
+        <v>1500000</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="10">
+        <v>2</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="101" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>96</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="11"/>
+      <c r="B101" s="2" t="str">
+        <f>Sheet2!B13</f>
+        <v>3523151008120009</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="38">
+        <f>Sheet2!D13</f>
+        <v>1000000</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="10">
+        <v>2</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="102" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>97</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="11"/>
+      <c r="B102" s="2" t="str">
+        <f>Sheet2!B26</f>
+        <v>3523151309090126</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="38">
+        <f>Sheet2!D26</f>
+        <v>3000000</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="10">
+        <v>3</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>98</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="10"/>
@@ -4799,9 +6108,7 @@
       <c r="N103" s="11"/>
     </row>
     <row r="104" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>99</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="10"/>
@@ -4832,94 +6139,50 @@
       <c r="M105" s="10"/>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="11"/>
-    </row>
-    <row r="107" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="11"/>
-    </row>
-    <row r="108" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="11"/>
-    </row>
-    <row r="109" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="13"/>
-    </row>
-    <row r="110" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="66" fitToHeight="3" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="38" max="13" man="1"/>
+    <brk id="79" max="13" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD2ADD6-DF4B-47D1-A8F6-34B9B56E53E6}">
-  <dimension ref="A3:J62"/>
+  <dimension ref="A3:J145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4934,69 +6197,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="H3" s="40" t="s">
-        <v>143</v>
+      <c r="A3" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="H3" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>136</v>
+      <c r="H5" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>134</v>
+      <c r="B6" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="27">
+        <v>128</v>
+      </c>
+      <c r="D6" s="25">
         <f>8400000/12</f>
         <v>700000</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>149</v>
+      <c r="E6" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>B8</f>
         <v>3523151403061499</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="25">
+        <v>135</v>
+      </c>
+      <c r="J6" s="23">
         <f>18000000/12</f>
         <v>1500000</v>
       </c>
@@ -5005,27 +6268,27 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>137</v>
+      <c r="B7" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="27">
+        <v>131</v>
+      </c>
+      <c r="D7" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>150</v>
+      <c r="E7" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>B12</f>
         <v>3523151403061490</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="23">
+        <v>147</v>
+      </c>
+      <c r="J7" s="21">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
@@ -5034,27 +6297,27 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>139</v>
+      <c r="B8" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="27">
+        <v>133</v>
+      </c>
+      <c r="D8" s="25">
         <f>24000000/12</f>
         <v>2000000</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>150</v>
+      <c r="E8" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>B17</f>
         <v>3523151403060761</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="24">
+        <v>158</v>
+      </c>
+      <c r="J8" s="22">
         <f>48000000/12</f>
         <v>4000000</v>
       </c>
@@ -5063,951 +6326,1536 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>144</v>
+      <c r="B9" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="28">
+        <v>138</v>
+      </c>
+      <c r="D9" s="26">
         <v>1500000</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>150</v>
+      <c r="E9" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>146</v>
+      <c r="B10" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <f>6000000/12</f>
         <v>500000</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="26"/>
+      <c r="E10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>147</v>
+      <c r="B11" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="27">
+        <v>141</v>
+      </c>
+      <c r="D11" s="25">
         <v>800000</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>150</v>
+      <c r="E11" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>151</v>
+      <c r="B12" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="27">
+        <v>145</v>
+      </c>
+      <c r="D12" s="25">
         <f>6000000/12</f>
         <v>500000</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>153</v>
+      <c r="E12" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
+      <c r="B13" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="27">
+        <v>149</v>
+      </c>
+      <c r="D13" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>150</v>
+      <c r="E13" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>157</v>
+      <c r="B14" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="27">
+        <v>151</v>
+      </c>
+      <c r="D14" s="25">
         <f>18000000/12</f>
         <v>1500000</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>150</v>
+      <c r="E14" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>160</v>
+      <c r="B15" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="27">
+        <v>152</v>
+      </c>
+      <c r="D15" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>150</v>
+      <c r="E15" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>161</v>
+      <c r="B16" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="27">
+        <v>155</v>
+      </c>
+      <c r="D16" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>150</v>
+      <c r="E16" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>163</v>
+      <c r="B17" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="27">
+        <v>157</v>
+      </c>
+      <c r="D17" s="25">
         <f>60000000/12</f>
         <v>5000000</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>150</v>
+      <c r="E17" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>166</v>
+      <c r="B18" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="27">
+        <v>160</v>
+      </c>
+      <c r="D18" s="25">
         <f>21600000/12</f>
         <v>1800000</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>150</v>
+      <c r="E18" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>168</v>
+      <c r="B19" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="27">
+        <v>162</v>
+      </c>
+      <c r="D19" s="25">
         <f>24000000/12</f>
         <v>2000000</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>150</v>
+      <c r="E19" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>170</v>
+      <c r="B20" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="27">
+        <v>164</v>
+      </c>
+      <c r="D20" s="25">
         <f>36000000/12</f>
         <v>3000000</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>150</v>
+      <c r="E20" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>172</v>
+      <c r="B21" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="27">
+        <v>166</v>
+      </c>
+      <c r="D21" s="25">
         <f>60000000/12</f>
         <v>5000000</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>150</v>
+      <c r="E21" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>174</v>
+      <c r="B22" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="27">
+        <v>168</v>
+      </c>
+      <c r="D22" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>150</v>
+      <c r="E22" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>176</v>
+      <c r="B23" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="27">
+        <v>170</v>
+      </c>
+      <c r="D23" s="25">
         <v>666000</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>150</v>
+      <c r="E23" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>178</v>
+      <c r="B24" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="27">
-        <f>1200000/12</f>
-        <v>100000</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>150</v>
+        <v>95</v>
+      </c>
+      <c r="D24" s="25">
+        <f>12000000/12</f>
+        <v>1000000</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>179</v>
+      <c r="B25" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="27">
+        <v>173</v>
+      </c>
+      <c r="D25" s="25">
         <f>24000000/12</f>
         <v>2000000</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>150</v>
+      <c r="E25" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>181</v>
+      <c r="B26" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="27">
+        <v>175</v>
+      </c>
+      <c r="D26" s="25">
         <f>36000000/12</f>
         <v>3000000</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>183</v>
+      <c r="E26" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>184</v>
+      <c r="B27" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>150</v>
+        <v>178</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>187</v>
+      <c r="B28" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="27">
+        <v>181</v>
+      </c>
+      <c r="D28" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>150</v>
+      <c r="E28" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>189</v>
+      <c r="B29" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="27">
+        <v>183</v>
+      </c>
+      <c r="D29" s="25">
         <f>24000000/12</f>
         <v>2000000</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>150</v>
+      <c r="E29" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>191</v>
+      <c r="B30" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="27">
+        <v>110</v>
+      </c>
+      <c r="D30" s="25">
         <v>800000</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>150</v>
+      <c r="E30" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>192</v>
+      <c r="B31" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="27">
+        <v>186</v>
+      </c>
+      <c r="D31" s="25">
         <f>36000000/12</f>
         <v>3000000</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>153</v>
+      <c r="E31" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>194</v>
+      <c r="B32" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="27">
+        <v>111</v>
+      </c>
+      <c r="D32" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>150</v>
+      <c r="E32" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>195</v>
+      <c r="B33" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="27">
+        <v>112</v>
+      </c>
+      <c r="D33" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>150</v>
+      <c r="E33" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>196</v>
+      <c r="B34" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="27">
+        <v>106</v>
+      </c>
+      <c r="D34" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>197</v>
+      <c r="E34" s="30" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>198</v>
+      <c r="B35" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="27">
+        <v>192</v>
+      </c>
+      <c r="D35" s="25">
         <f>36000000/12</f>
         <v>3000000</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>150</v>
+      <c r="E35" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>200</v>
+      <c r="B36" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>32</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>201</v>
+      <c r="B37" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="27">
+        <v>98</v>
+      </c>
+      <c r="D37" s="25">
         <v>800000</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>150</v>
+      <c r="E37" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>33</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>202</v>
+      <c r="B38" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="27">
+        <v>102</v>
+      </c>
+      <c r="D38" s="25">
         <f>18000000/12</f>
         <v>1500000</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>150</v>
+      <c r="E38" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>34</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>203</v>
+      <c r="B39" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>150</v>
+        <v>109</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>35</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>204</v>
+      <c r="B40" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="27">
+        <v>198</v>
+      </c>
+      <c r="D40" s="25">
         <f>60000000/12</f>
         <v>5000000</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>150</v>
+      <c r="E40" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>36</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>206</v>
+      <c r="B41" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="27">
+        <v>104</v>
+      </c>
+      <c r="D41" s="25">
         <f>30000000/12</f>
         <v>2500000</v>
       </c>
-      <c r="E41" s="32" t="s">
-        <v>150</v>
+      <c r="E41" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>37</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>207</v>
+      <c r="B42" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="27">
+        <v>105</v>
+      </c>
+      <c r="D42" s="25">
         <f>18000000/12</f>
         <v>1500000</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>153</v>
+      <c r="E42" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>38</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>208</v>
+      <c r="B43" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="27">
+        <v>118</v>
+      </c>
+      <c r="D43" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>150</v>
+      <c r="E43" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>209</v>
+      <c r="B44" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="27">
+        <v>119</v>
+      </c>
+      <c r="D44" s="25">
         <f>48000000/12</f>
         <v>4000000</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>150</v>
+      <c r="E44" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>210</v>
+      <c r="B45" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="27">
+        <v>204</v>
+      </c>
+      <c r="D45" s="25">
         <f>60000000/12</f>
         <v>5000000</v>
       </c>
-      <c r="E45" s="32" t="s">
-        <v>150</v>
+      <c r="E45" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>212</v>
+      <c r="B46" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="27">
+        <v>205</v>
+      </c>
+      <c r="D46" s="25">
         <v>800000</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>150</v>
+      <c r="E46" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>214</v>
+      <c r="B47" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="27">
+        <v>123</v>
+      </c>
+      <c r="D47" s="25">
         <f>48000000/12</f>
         <v>4000000</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>150</v>
+      <c r="E47" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>215</v>
+      <c r="B48" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="27">
+        <v>208</v>
+      </c>
+      <c r="D48" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>149</v>
+      <c r="E48" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>217</v>
+      <c r="B49" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="27">
+        <v>210</v>
+      </c>
+      <c r="D49" s="25">
         <f>6000000/12</f>
         <v>500000</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>153</v>
+      <c r="E49" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>219</v>
+      <c r="B50" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="27">
+        <v>212</v>
+      </c>
+      <c r="D50" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>150</v>
+      <c r="E50" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>46</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>221</v>
+      <c r="B51" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="27">
+        <v>214</v>
+      </c>
+      <c r="D51" s="25">
         <f>25000000/12</f>
         <v>2083333.3333333333</v>
       </c>
-      <c r="E51" s="32" t="s">
-        <v>150</v>
+      <c r="E51" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>47</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>223</v>
+      <c r="B52" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="27">
+        <v>216</v>
+      </c>
+      <c r="D52" s="25">
         <f>44400000/12</f>
         <v>3700000</v>
       </c>
-      <c r="E52" s="32" t="s">
-        <v>150</v>
+      <c r="E52" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>48</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>225</v>
+      <c r="B53" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="27">
+        <v>218</v>
+      </c>
+      <c r="D53" s="25">
         <f>5830000</f>
         <v>5830000</v>
       </c>
-      <c r="E53" s="32" t="s">
-        <v>150</v>
+      <c r="E53" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>227</v>
+      <c r="B54" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="27">
+        <v>220</v>
+      </c>
+      <c r="D54" s="25">
         <f>18000000/12</f>
         <v>1500000</v>
       </c>
-      <c r="E54" s="32" t="s">
-        <v>150</v>
+      <c r="E54" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>50</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>229</v>
+      <c r="B55" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="27">
+        <v>222</v>
+      </c>
+      <c r="D55" s="25">
         <v>1600000</v>
       </c>
-      <c r="E55" s="32" t="s">
-        <v>149</v>
+      <c r="E55" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>51</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>231</v>
+      <c r="B56" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="27">
+        <v>224</v>
+      </c>
+      <c r="D56" s="25">
         <f>48000000/12</f>
         <v>4000000</v>
       </c>
-      <c r="E56" s="32" t="s">
-        <v>183</v>
+      <c r="E56" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>52</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>233</v>
+      <c r="B57" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="27">
+        <v>226</v>
+      </c>
+      <c r="D57" s="25">
         <f>12000000/12</f>
         <v>1000000</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>183</v>
+      <c r="E57" s="30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>53</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>235</v>
+      <c r="B58" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" s="27">
+        <v>228</v>
+      </c>
+      <c r="D58" s="25">
         <f>60000000/12</f>
         <v>5000000</v>
       </c>
-      <c r="E58" s="32" t="s">
-        <v>150</v>
+      <c r="E58" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>237</v>
+      <c r="B59" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" s="27">
+        <v>230</v>
+      </c>
+      <c r="D59" s="25">
         <f>36000000/12</f>
         <v>3000000</v>
       </c>
-      <c r="E59" s="32" t="s">
-        <v>150</v>
+      <c r="E59" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>55</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>239</v>
+      <c r="B60" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="27">
+        <v>232</v>
+      </c>
+      <c r="D60" s="25">
         <f>30000000/12</f>
         <v>2500000</v>
       </c>
-      <c r="E60" s="32" t="s">
-        <v>150</v>
+      <c r="E60" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>241</v>
+      <c r="B61" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D61" s="30">
+        <v>234</v>
+      </c>
+      <c r="D61" s="28">
         <f>24000000/12</f>
         <v>2000000</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>150</v>
+      <c r="E61" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="21"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="21"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="21"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="21"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="21"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="21"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="21"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="21"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="21"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="21"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="21"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="21"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="21"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="21"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="21"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="21"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="21"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="21"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="21"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="21"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="21"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="21"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="21"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="21"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="21"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="21"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="21"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="21"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="21"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="21"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="21"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="21"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A64:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
